--- a/xlslist/F1_other_class.xlsx
+++ b/xlslist/F1_other_class.xlsx
@@ -1,17 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>N. Classes</t>
+  </si>
+  <si>
+    <t>Samples</t>
+  </si>
+  <si>
+    <t>LDA</t>
+  </si>
+  <si>
+    <t>GNB</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>XGB</t>
+  </si>
+  <si>
+    <t>Phylum</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Genus</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50,89 +93,22 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -433,7 +409,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
@@ -459,207 +435,181 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Classification</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>N. Classes</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Samples</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>LDA</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>GNB</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>SVM</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>KNN</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>XGB</t>
-        </is>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Phylum</t>
-        </is>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>215</v>
+        <v>660</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6092386707475518</v>
+        <v>0.5210630961527485</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6295592232664736</v>
+        <v>0.4954527892962427</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6664626682986536</v>
+        <v>0.4435507089901389</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6914082687338502</v>
+        <v>0.6689018430471485</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7627062297429072</v>
+        <v>0.9604358595993518</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>168</v>
+        <v>493</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5042339553175467</v>
+        <v>0.6293896008282287</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5861344537815126</v>
+        <v>0.5530700611386923</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4570791527313266</v>
+        <v>0.4220167266356194</v>
       </c>
       <c r="H4" t="n">
-        <v>0.57793799337917</v>
+        <v>0.6208239410903864</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7139078887368902</v>
+        <v>0.9462785898344999</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Order</t>
-        </is>
+      <c r="B5" t="s">
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>242</v>
+        <v>743</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3232611020951642</v>
+        <v>0.3747110212435322</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2495514794483867</v>
+        <v>0.2597915783728398</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1300620287232106</v>
+        <v>0.1870894884183934</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2198244562799731</v>
+        <v>0.3159165562888375</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4223715145106898</v>
+        <v>0.6675976906862151</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Family</t>
-        </is>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>219</v>
+        <v>636</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2939232177037055</v>
+        <v>0.4529188209232363</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2717421467421468</v>
+        <v>0.3167397475090822</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1336783935242839</v>
+        <v>0.2402080083482618</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2362712123096403</v>
+        <v>0.3317366399789091</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3987039512774807</v>
+        <v>0.8529405710441784</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Genus</t>
-        </is>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="D7" t="n">
-        <v>213</v>
+        <v>543</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2299143755918275</v>
+        <v>0.57672512509112</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1089922480620155</v>
+        <v>0.2899984791943651</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05369733737782272</v>
+        <v>0.1228138457442518</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02900982977703189</v>
+        <v>0.1788982006239774</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2061607507139943</v>
+        <v>0.9172200094570151</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/xlslist/F1_other_class.xlsx
+++ b/xlslist/F1_other_class.xlsx
@@ -478,19 +478,19 @@
         <v>660</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5210630961527485</v>
+        <v>0.5599812868873362</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4954527892962427</v>
+        <v>0.4835213448527198</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4435507089901389</v>
+        <v>0.4435507089901388</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6689018430471485</v>
+        <v>0.6844581309751487</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9604358595993518</v>
+        <v>0.9591339735637363</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -507,19 +507,19 @@
         <v>493</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6293896008282287</v>
+        <v>0.6267645982276553</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5530700611386923</v>
+        <v>0.5632957481921486</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4220167266356194</v>
+        <v>0.4152202803104818</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6208239410903864</v>
+        <v>0.6284198425885389</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9462785898344999</v>
+        <v>0.9481911627870443</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -536,19 +536,19 @@
         <v>743</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3747110212435322</v>
+        <v>0.3821427120294641</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2597915783728398</v>
+        <v>0.2655575255251749</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1870894884183934</v>
+        <v>0.1789997240931665</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3159165562888375</v>
+        <v>0.3016614563159563</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6675976906862151</v>
+        <v>0.6682234216999524</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -565,19 +565,19 @@
         <v>636</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4529188209232363</v>
+        <v>0.4579423280197026</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3167397475090822</v>
+        <v>0.3133545469664917</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2402080083482618</v>
+        <v>0.2193398219340217</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3317366399789091</v>
+        <v>0.3325553651844406</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8529405710441784</v>
+        <v>0.8495801154964431</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -594,19 +594,19 @@
         <v>543</v>
       </c>
       <c r="E7" t="n">
-        <v>0.57672512509112</v>
+        <v>0.5752898174200652</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2899984791943651</v>
+        <v>0.2768695024867199</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1228138457442518</v>
+        <v>0.1246732172667117</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1788982006239774</v>
+        <v>0.1747396420507207</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9172200094570151</v>
+        <v>0.9039027077099593</v>
       </c>
     </row>
   </sheetData>

--- a/xlslist/F1_other_class.xlsx
+++ b/xlslist/F1_other_class.xlsx
@@ -501,25 +501,25 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>493</v>
+        <v>615</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6267645982276553</v>
+        <v>0.5674302615310721</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5632957481921486</v>
+        <v>0.4233036749966025</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4152202803104818</v>
+        <v>0.2910335184687418</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6284198425885389</v>
+        <v>0.5241289464325264</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9481911627870443</v>
+        <v>0.9328309402922241</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -530,25 +530,25 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>743</v>
+        <v>634</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3821427120294641</v>
+        <v>0.4804068468854622</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2655575255251749</v>
+        <v>0.3101490968906679</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1789997240931665</v>
+        <v>0.2363609974500226</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3016614563159563</v>
+        <v>0.3652547484158176</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6682234216999524</v>
+        <v>0.894826507562688</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -559,25 +559,25 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4579423280197026</v>
+        <v>0.4703161493600854</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3133545469664917</v>
+        <v>0.3177467129857344</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2193398219340217</v>
+        <v>0.2284068803588683</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3325553651844406</v>
+        <v>0.3391706318729437</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8495801154964431</v>
+        <v>0.8881877753499207</v>
       </c>
     </row>
     <row r="7" spans="1:9">
